--- a/runtimes/4080/data.xlsx
+++ b/runtimes/4080/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,32 +485,32 @@
         <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1.88928, 1.89952, 1.97715, 1.98758, 1.89952]</t>
+          <t>[1.87987, 1.92717, 1.89338, 1.90566, 1.91382]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0.156672, 0.166912, 0.178176, 0.159744, 0.152576]</t>
+          <t>[0.180224, 0.1792, 0.178176, 0.182304, 0.176128]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9409425</v>
+        <v>1.9100075</v>
       </c>
       <c r="H2" t="n">
-        <v>0.164352</v>
+        <v>0.178952</v>
       </c>
       <c r="I2" t="n">
-        <v>11.80966766452492</v>
+        <v>10.67329507353927</v>
       </c>
     </row>
     <row r="3">
@@ -518,32 +518,32 @@
         <v>100</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[2.0224, 1.98042, 2.02445, 2.0265, 2.06848]</t>
+          <t>[2.19341, 2.16678, 2.1545, 2.14826, 2.21994]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0.181056, 0.187392, 0.224256, 0.187392, 0.1792]</t>
+          <t>[0.230336, 0.2304, 0.234496, 0.233472, 0.237376]</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.0249625</v>
+        <v>2.17237</v>
       </c>
       <c r="H3" t="n">
-        <v>0.19456</v>
+        <v>0.233936</v>
       </c>
       <c r="I3" t="n">
-        <v>10.40790758634868</v>
+        <v>9.286172286437315</v>
       </c>
     </row>
     <row r="4">
@@ -551,32 +551,32 @@
         <v>100</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[2.29171, 2.37261, 2.3337, 2.33258, 2.29478]</t>
+          <t>[2.68493, 2.67981, 2.7095, 2.69005, 2.70541]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[0.23264, 0.232448, 0.23664, 0.242688, 0.232448]</t>
+          <t>[0.337856, 0.33792, 0.338912, 0.338944, 0.345088]</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3334175</v>
+        <v>2.6961925</v>
       </c>
       <c r="H4" t="n">
-        <v>0.236056</v>
+        <v>0.340216</v>
       </c>
       <c r="I4" t="n">
-        <v>9.885016690954689</v>
+        <v>7.924943271333506</v>
       </c>
     </row>
     <row r="5">
@@ -584,32 +584,32 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
         <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[2.84672, 2.87334, 2.84365, 2.83034, 2.88582]</t>
+          <t>[3.72838, 3.74886, 3.77242, 3.76422, 3.7991]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[0.35328, 0.344064, 0.351232, 0.340992, 0.34304]</t>
+          <t>[0.557056, 0.552896, 0.55808, 0.556864, 0.550912]</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.858287499999999</v>
+        <v>3.77115</v>
       </c>
       <c r="H5" t="n">
-        <v>0.344832</v>
+        <v>0.554688</v>
       </c>
       <c r="I5" t="n">
-        <v>8.288927651726057</v>
+        <v>6.798686829352717</v>
       </c>
     </row>
     <row r="6">
@@ -617,32 +617,32 @@
         <v>100</v>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C6" t="n">
         <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[3.89136, 3.96675, 3.97005, 3.95878, 4.06528]</t>
+          <t>[11.1032, 11.0594, 11.1237, 11.1932, 11.0961]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[0.560992, 0.56832, 0.557056, 0.555008, 0.5528]</t>
+          <t>[1.00762, 1.0025, 1.00454, 1.0025, 1.00432]</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.990215</v>
+        <v>11.1181</v>
       </c>
       <c r="H6" t="n">
-        <v>0.558296</v>
+        <v>1.003465</v>
       </c>
       <c r="I6" t="n">
-        <v>7.147131629099975</v>
+        <v>11.07970880897689</v>
       </c>
     </row>
     <row r="7">
@@ -650,32 +650,32 @@
         <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C7" t="n">
         <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[11.6184, 11.7676, 11.6931, 11.7258, 11.6714]</t>
+          <t>[16.7752, 16.9144, 16.8765, 16.8334, 16.8356]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[1.01792, 1.01069, 1.01888, 1.00864, 1.00864]</t>
+          <t>[1.53184, 1.52474, 1.52794, 1.53888, 1.52461]</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>11.714475</v>
+        <v>16.864975</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0117125</v>
+        <v>1.5290425</v>
       </c>
       <c r="I7" t="n">
-        <v>11.57885763000852</v>
+        <v>11.02976208967377</v>
       </c>
     </row>
     <row r="8">
@@ -683,32 +683,32 @@
         <v>100</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>200</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[1.30765, 1.31056, 1.34432, 2.63043, 1.3271]</t>
+          <t>[1.35885, 1.36698, 1.34438, 1.42336, 1.30458]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[1.79405, 1.85037, 1.85549, 2.20144, 1.84205]</t>
+          <t>[1.68038, 1.73568, 1.71008, 1.7961, 1.6304]</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.6531025</v>
+        <v>1.359825</v>
       </c>
       <c r="H8" t="n">
-        <v>1.9373375</v>
+        <v>1.718065</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8532857594507927</v>
+        <v>0.7914863523789845</v>
       </c>
     </row>
     <row r="9">
@@ -716,32 +716,32 @@
         <v>100</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>200</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[1.48154, 1.46432, 1.4295, 1.42563, 1.44998]</t>
+          <t>[1.69766, 1.64147, 1.74573, 1.74483, 1.75635]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[1.83194, 1.89542, 1.85549, 1.87482, 1.90362]</t>
+          <t>[1.73568, 1.74486, 1.91482, 1.70899, 1.72134]</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.4423575</v>
+        <v>1.722095</v>
       </c>
       <c r="H9" t="n">
-        <v>1.8823375</v>
+        <v>1.7725025</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7662587075909607</v>
+        <v>0.9715613941306149</v>
       </c>
     </row>
     <row r="10">
@@ -749,32 +749,32 @@
         <v>100</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
         <v>200</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[1.78278, 1.75504, 1.77152, 1.76128, 1.73648]</t>
+          <t>[2.688, 2.85798, 2.68288, 2.64502, 2.66019]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[1.90272, 1.88928, 1.90976, 1.90362, 1.91475]</t>
+          <t>[1.87085, 1.9823, 2.02752, 1.84013, 1.84013]</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75608</v>
+        <v>2.7115175</v>
       </c>
       <c r="H10" t="n">
-        <v>1.9043525</v>
+        <v>1.92252</v>
       </c>
       <c r="I10" t="n">
-        <v>0.922140202509777</v>
+        <v>1.410397551130808</v>
       </c>
     </row>
     <row r="11">
@@ -782,32 +782,32 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
         <v>200</v>
       </c>
       <c r="D11" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[3.91168, 2.73715, 2.74413, 2.75661, 2.76893]</t>
+          <t>[3.24403, 3.1703, 3.18976, 3.21331, 3.19373]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[1.99866, 2.03776, 1.98861, 1.98861, 2.02019]</t>
+          <t>[2.06234, 2.08077, 2.0583, 2.06221, 2.09488]</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.751705</v>
+        <v>3.191775</v>
       </c>
       <c r="H11" t="n">
-        <v>2.0087925</v>
+        <v>2.07404</v>
       </c>
       <c r="I11" t="n">
-        <v>1.369830383177954</v>
+        <v>1.538916800061715</v>
       </c>
     </row>
     <row r="12">
@@ -815,32 +815,32 @@
         <v>100</v>
       </c>
       <c r="B12" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C12" t="n">
         <v>200</v>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[3.3239, 3.31878, 3.32899, 3.33414, 3.32067]</t>
+          <t>[12.1895, 12.2294, 12.0997, 12.4116, 12.2306]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[2.22934, 2.24448, 2.22717, 2.28147, 2.26307]</t>
+          <t>[2.57933, 2.56, 2.51085, 2.55488, 2.51283]</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.325645</v>
+        <v>12.242825</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2540475</v>
+        <v>2.53464</v>
       </c>
       <c r="I12" t="n">
-        <v>1.47541034516797</v>
+        <v>4.830202711233154</v>
       </c>
     </row>
     <row r="13">
@@ -848,32 +848,32 @@
         <v>100</v>
       </c>
       <c r="B13" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C13" t="n">
         <v>200</v>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[12.6659, 12.8325, 12.6515, 12.6771, 12.6495]</t>
+          <t>[24.2289, 19.9873, 20.0428, 19.968, 19.9926]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[2.63578, 2.75149, 2.68374, 2.66957, 2.67907]</t>
+          <t>[3.43587, 3.44269, 3.4455, 3.4263, 3.45088]</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>12.70265</v>
+        <v>19.997675</v>
       </c>
       <c r="H13" t="n">
-        <v>2.6959675</v>
+        <v>3.4413425</v>
       </c>
       <c r="I13" t="n">
-        <v>4.711722229589193</v>
+        <v>5.811009802133906</v>
       </c>
     </row>
     <row r="14">
@@ -881,32 +881,32 @@
         <v>100</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>400</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[1.33427, 1.3568, 1.33222, 1.37523, 1.37114]</t>
+          <t>[1.47149, 1.44701, 1.4888, 1.45613, 1.55443]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[1.75411, 1.85242, 2.53747, 1.76947, 1.81958]</t>
+          <t>[1.68448, 1.67526, 1.67424, 1.66627, 1.7623]</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.3588475</v>
+        <v>1.4865925</v>
       </c>
       <c r="H14" t="n">
-        <v>1.994735</v>
+        <v>1.6945175</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6812170538943769</v>
+        <v>0.8772954543107404</v>
       </c>
     </row>
     <row r="15">
@@ -914,32 +914,32 @@
         <v>100</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>400</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[1.5943, 1.5727, 1.58195, 1.56765, 1.58413]</t>
+          <t>[2.02138, 1.96915, 1.97616, 2.01318, 2.02342]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[1.82675, 1.86061, 1.89133, 1.86778, 1.86573]</t>
+          <t>[1.74592, 1.73968, 1.73978, 1.75616, 1.74899]</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5766075</v>
+        <v>1.9954775</v>
       </c>
       <c r="H15" t="n">
-        <v>1.8713625</v>
+        <v>1.7461525</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8424917673620157</v>
+        <v>1.142785352367563</v>
       </c>
     </row>
     <row r="16">
@@ -947,32 +947,32 @@
         <v>100</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
         <v>400</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[2.11645, 2.13811, 2.0889, 2.08179, 2.08896]</t>
+          <t>[3.6055, 3.57984, 3.5727, 3.58077, 3.60147]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[1.98451, 1.95891, 1.9241, 1.93421, 1.97837]</t>
+          <t>[1.95072, 1.85139, 1.85651, 1.90874, 1.82666]</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.09944</v>
+        <v>3.583695</v>
       </c>
       <c r="H16" t="n">
-        <v>1.9488975</v>
+        <v>1.860825</v>
       </c>
       <c r="I16" t="n">
-        <v>1.077244955160546</v>
+        <v>1.925863528273749</v>
       </c>
     </row>
     <row r="17">
@@ -980,32 +980,32 @@
         <v>100</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
         <v>400</v>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[3.77037, 3.68758, 3.6823, 3.68845, 3.76627]</t>
+          <t>[4.9664, 4.95309, 4.96435, 5.00838, 5.00736]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[2.06746, 1.9671, 1.98058, 2.11354, 2.05114]</t>
+          <t>[2.1033, 2.07872, 2.07229, 2.09613, 2.18112]</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.70615</v>
+        <v>4.983295</v>
       </c>
       <c r="H17" t="n">
-        <v>2.02809</v>
+        <v>2.107065</v>
       </c>
       <c r="I17" t="n">
-        <v>1.82740904003274</v>
+        <v>2.365040945580701</v>
       </c>
     </row>
     <row r="18">
@@ -1013,32 +1013,32 @@
         <v>100</v>
       </c>
       <c r="B18" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C18" t="n">
         <v>400</v>
       </c>
       <c r="D18" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[5.05242, 5.21603, 5.01552, 5.04832, 5.08006]</t>
+          <t>[16.1638, 16.299, 16.3021, 16.263, 16.341]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[2.20262, 2.34906, 2.23232, 2.21728, 2.26195]</t>
+          <t>[2.57741, 2.57741, 2.57101, 2.56112, 2.63475]</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.0899825</v>
+        <v>16.301275</v>
       </c>
       <c r="H18" t="n">
-        <v>2.2651525</v>
+        <v>2.5860725</v>
       </c>
       <c r="I18" t="n">
-        <v>2.247081598258837</v>
+        <v>6.303487237886798</v>
       </c>
     </row>
     <row r="19">
@@ -1046,32 +1046,32 @@
         <v>100</v>
       </c>
       <c r="B19" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C19" t="n">
         <v>400</v>
       </c>
       <c r="D19" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[16.4844, 16.7291, 16.6861, 16.6369, 16.7545]</t>
+          <t>[32.7567, 32.7883, 32.7291, 32.7526, 32.7465]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[2.67878, 2.73408, 2.73306, 2.72486, 2.78221]</t>
+          <t>[3.54714, 3.53894, 3.5608, 3.56966, 3.52563]</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>16.70165</v>
+        <v>32.754125</v>
       </c>
       <c r="H19" t="n">
-        <v>2.7435525</v>
+        <v>3.5487575</v>
       </c>
       <c r="I19" t="n">
-        <v>6.087599927466306</v>
+        <v>9.229744495080322</v>
       </c>
     </row>
     <row r="20">
@@ -1079,32 +1079,32 @@
         <v>100</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>800</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[1.38432, 1.41296, 1.38739, 1.38035, 1.49197]</t>
+          <t>[1.6169, 1.61894, 1.59968, 1.63021, 1.62918]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[1.792, 1.83501, 1.81862, 1.79498, 1.8553]</t>
+          <t>[1.82784, 1.8257, 1.82989, 1.81862, 1.796]</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.4181675</v>
+        <v>1.6195025</v>
       </c>
       <c r="H20" t="n">
-        <v>1.8259775</v>
+        <v>1.8175525</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7766620892097521</v>
+        <v>0.8910347844147554</v>
       </c>
     </row>
     <row r="21">
@@ -1112,32 +1112,32 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>800</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[1.61786, 1.60666, 1.67219, 1.63021, 1.64659]</t>
+          <t>[2.19955, 2.18317, 2.2272, 2.19034, 2.19238]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[1.81229, 1.82886, 1.84832, 1.8688, 1.91283]</t>
+          <t>[1.79507, 1.7937, 1.7961, 1.792, 1.79098]</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.6389125</v>
+        <v>2.1982725</v>
       </c>
       <c r="H21" t="n">
-        <v>1.8647025</v>
+        <v>1.793195</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8789136604900782</v>
+        <v>1.225897071986036</v>
       </c>
     </row>
     <row r="22">
@@ -1145,32 +1145,32 @@
         <v>100</v>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C22" t="n">
         <v>800</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[2.26816, 2.25997, 2.25792, 2.28246, 2.29376]</t>
+          <t>[4.1216, 4.21171, 4.20557, 4.11238, 4.14608]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[1.89114, 1.88528, 1.87597, 1.89747, 1.90464]</t>
+          <t>[1.91181, 2.0161, 1.98451, 1.90874, 1.87904]</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2735275</v>
+        <v>4.168935</v>
       </c>
       <c r="H22" t="n">
-        <v>1.89084</v>
+        <v>1.9470975</v>
       </c>
       <c r="I22" t="n">
-        <v>1.202390207526814</v>
+        <v>2.141102333088097</v>
       </c>
     </row>
     <row r="23">
@@ -1178,32 +1178,32 @@
         <v>100</v>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C23" t="n">
         <v>800</v>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[4.23219, 4.21808, 4.20864, 4.19635, 4.22378]</t>
+          <t>[7.81824, 7.81005, 7.83357, 7.81926, 7.7353]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[2.04163, 2.07456, 2.00806, 2.02013, 2.0704]</t>
+          <t>[2.16371, 2.17267, 2.16678, 2.17904, 2.14733]</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.211712499999999</v>
+        <v>7.799544999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2.0432875</v>
+        <v>2.166455</v>
       </c>
       <c r="I23" t="n">
-        <v>2.06124321711947</v>
+        <v>3.600141706151293</v>
       </c>
     </row>
     <row r="24">
@@ -1211,32 +1211,32 @@
         <v>100</v>
       </c>
       <c r="B24" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C24" t="n">
         <v>800</v>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[7.86349, 7.96672, 7.95955, 7.92781, 7.79037]</t>
+          <t>[21.3267, 20.8681, 22.3478, 20.7124, 20.9285]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[2.32243, 2.32858, 2.37056, 2.36112, 2.35725]</t>
+          <t>[2.85901, 2.728, 2.76355, 2.7095, 2.7136]</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>7.9111125</v>
+        <v>21.2142</v>
       </c>
       <c r="H24" t="n">
-        <v>2.3543775</v>
+        <v>2.7286625</v>
       </c>
       <c r="I24" t="n">
-        <v>3.360171637725895</v>
+        <v>7.774578204523277</v>
       </c>
     </row>
     <row r="25">
@@ -1244,230 +1244,230 @@
         <v>100</v>
       </c>
       <c r="B25" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C25" t="n">
         <v>800</v>
       </c>
       <c r="D25" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[21.2306, 21.1548, 21.3719, 21.3555, 21.5132]</t>
+          <t>[47.1439, 46.21, 46.3943, 46.2438, 46.2305]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[2.9225, 2.86413, 2.84669, 2.85184, 2.84467]</t>
+          <t>[3.9935, 3.83693, 3.86467, 3.83171, 3.83795]</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>21.34885</v>
+        <v>46.26965</v>
       </c>
       <c r="H25" t="n">
-        <v>2.8518325</v>
+        <v>3.842815</v>
       </c>
       <c r="I25" t="n">
-        <v>7.486011187543448</v>
+        <v>12.0405614113612</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[1.28512, 1.31869, 1.3055, 1.29946, 1.30458]</t>
+          <t>[1.7809, 1.66707, 1.6937, 1.72339, 1.64352]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[1.77562, 1.83398, 1.78278, 1.82477, 1.86163]</t>
+          <t>[2.03674, 1.79398, 1.73978, 1.85446, 1.78893]</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3070575</v>
+        <v>1.68192</v>
       </c>
       <c r="H26" t="n">
-        <v>1.82579</v>
+        <v>1.7942875</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7158860000328625</v>
+        <v>0.937374863281386</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[1.38234, 1.408, 1.41824, 1.46739, 1.41926]</t>
+          <t>[2.31837, 2.36134, 2.39194, 2.37773, 2.32346]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[1.81146, 2.50163, 1.85942, 1.87178, 1.89542]</t>
+          <t>[1.80429, 1.85114, 1.91405, 1.88518, 1.78176]</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.4282225</v>
+        <v>2.3636175</v>
       </c>
       <c r="H27" t="n">
-        <v>2.0320625</v>
+        <v>1.8580325</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7028437855626979</v>
+        <v>1.272107726856231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[1.77971, 1.76448, 1.76333, 1.7449, 1.73997]</t>
+          <t>[4.61517, 4.59776, 4.61005, 4.63469, 4.62221]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[1.85549, 1.91056, 1.92, 1.90874, 1.89952]</t>
+          <t>[1.97622, 2.01523, 1.93843, 2.03267, 1.97734]</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.75317</v>
+        <v>4.6161775</v>
       </c>
       <c r="H28" t="n">
-        <v>1.909705</v>
+        <v>1.9909175</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9180318426144352</v>
+        <v>2.318618174786248</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="D29" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[2.72896, 2.77606, 2.7351, 2.76982, 2.74637]</t>
+          <t>[13.4266, 13.4318, 13.4361, 13.183, 13.8363]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[1.98042, 2.06131, 2.09715, 2.04698, 1.97427]</t>
+          <t>[2.21389, 2.25485, 2.28659, 2.23414, 2.26099]</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.7568375</v>
+        <v>13.4718</v>
       </c>
       <c r="H29" t="n">
-        <v>2.0449275</v>
+        <v>2.2591425</v>
       </c>
       <c r="I29" t="n">
-        <v>1.34813459156865</v>
+        <v>5.963236050846726</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B30" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C30" t="n">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="D30" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[3.29011, 3.30342, 3.28704, 3.30547, 3.29318]</t>
+          <t>[29.0499, 29.3212, 29.3335, 29.1255, 29.4582]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[2.19443, 2.26714, 2.19136, 2.26714, 2.22822]</t>
+          <t>[2.8887, 2.90918, 2.88461, 2.88582, 2.89178]</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.2972775</v>
+        <v>29.3096</v>
       </c>
       <c r="H30" t="n">
-        <v>2.238465</v>
+        <v>2.8928475</v>
       </c>
       <c r="I30" t="n">
-        <v>1.473008289162439</v>
+        <v>10.13174735273809</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B31" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C31" t="n">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="D31" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[12.6884, 12.6925, 12.7898, 12.6689, 12.6996]</t>
+          <t>[68.8609, 61.2001, 60.8614, 61.4676, 61.6406]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[2.6624, 2.68493, 2.75558, 2.70723, 2.68083]</t>
+          <t>[4.35091, 3.93389, 3.92394, 3.98422, 4.02678]</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>12.7127</v>
+        <v>61.292425</v>
       </c>
       <c r="H31" t="n">
-        <v>2.7071425</v>
+        <v>3.9672075</v>
       </c>
       <c r="I31" t="n">
-        <v>4.695984788388495</v>
+        <v>15.44976535762246</v>
       </c>
     </row>
     <row r="32">
@@ -1475,32 +1475,32 @@
         <v>200</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[1.34451, 1.35578, 1.39674, 1.38547, 1.3568]</t>
+          <t>[1.40288, 1.36909, 1.36368, 1.35885, 1.408]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[1.78368, 1.80736, 1.84422, 1.82477, 1.81427]</t>
+          <t>[1.80912, 1.78352, 1.77869, 1.78893, 1.78688]</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3736975</v>
+        <v>1.374905</v>
       </c>
       <c r="H32" t="n">
-        <v>1.822655</v>
+        <v>1.784505</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7536793852923345</v>
+        <v>0.770468561309719</v>
       </c>
     </row>
     <row r="33">
@@ -1508,32 +1508,32 @@
         <v>200</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[1.54624, 1.52269, 1.53702, 1.53805, 1.58614]</t>
+          <t>[1.74285, 1.72669, 1.7449, 1.6599, 1.73158]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[1.80509, 1.7961, 1.80429, 1.86902, 1.8688]</t>
+          <t>[1.85334, 1.85123, 1.90976, 1.77946, 1.9456]</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.545975</v>
+        <v>1.7157675</v>
       </c>
       <c r="H33" t="n">
-        <v>1.8345525</v>
+        <v>1.8715125</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8426986962760674</v>
+        <v>0.9167812130562847</v>
       </c>
     </row>
     <row r="34">
@@ -1541,32 +1541,32 @@
         <v>200</v>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C34" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[2.10637, 2.09306, 2.07667, 2.06029, 2.09306]</t>
+          <t>[2.6591, 2.73306, 2.72589, 2.68493, 2.74534]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[1.8688, 1.95174, 1.86982, 1.94128, 1.95978]</t>
+          <t>[1.81862, 2.29866, 1.95584, 1.8616, 1.91878]</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.08077</v>
+        <v>2.722305</v>
       </c>
       <c r="H34" t="n">
-        <v>1.930655</v>
+        <v>2.00872</v>
       </c>
       <c r="I34" t="n">
-        <v>1.077753404932523</v>
+        <v>1.355243637739456</v>
       </c>
     </row>
     <row r="35">
@@ -1574,32 +1574,32 @@
         <v>200</v>
       </c>
       <c r="B35" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C35" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D35" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[3.68221, 3.67395, 3.69664, 3.6823, 3.7079]</t>
+          <t>[3.27066, 3.25325, 3.21213, 3.21331, 3.23482]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[1.99987, 1.99571, 2.02445, 2.04275, 1.99994]</t>
+          <t>[2.17293, 2.28454, 2.10432, 2.1224, 2.10125]</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.6901975</v>
+        <v>3.2283775</v>
       </c>
       <c r="H35" t="n">
-        <v>2.0157125</v>
+        <v>2.1531275</v>
       </c>
       <c r="I35" t="n">
-        <v>1.83071618596402</v>
+        <v>1.499389841056789</v>
       </c>
     </row>
     <row r="36">
@@ -1607,32 +1607,32 @@
         <v>200</v>
       </c>
       <c r="B36" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C36" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D36" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[5.03808, 5.08723, 5.08211, 5.00838, 5.05741]</t>
+          <t>[12.1999, 12.3136, 12.2092, 12.2563, 12.2358]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[2.26022, 2.26304, 2.26202, 2.2504, 2.25997]</t>
+          <t>[2.54771, 2.53747, 2.56205, 2.54874, 2.55078]</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.0587825</v>
+        <v>12.253725</v>
       </c>
       <c r="H36" t="n">
-        <v>2.2588575</v>
+        <v>2.54976</v>
       </c>
       <c r="I36" t="n">
-        <v>2.239531488816803</v>
+        <v>4.805834666792168</v>
       </c>
     </row>
     <row r="37">
@@ -1640,32 +1640,32 @@
         <v>200</v>
       </c>
       <c r="B37" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C37" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D37" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[16.684, 16.7414, 16.7557, 16.6983, 16.7105]</t>
+          <t>[20.1511, 20.1051, 20.0468, 20.0868, 20.3039]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[2.69107, 2.74534, 2.68902, 2.73818, 2.73811]</t>
+          <t>[3.55523, 3.53792, 3.51821, 3.56762, 3.61472]</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>16.726475</v>
+        <v>20.13565</v>
       </c>
       <c r="H37" t="n">
-        <v>2.7276625</v>
+        <v>3.5596175</v>
       </c>
       <c r="I37" t="n">
-        <v>6.132164444831426</v>
+        <v>5.656689236975602</v>
       </c>
     </row>
     <row r="38">
@@ -1673,32 +1673,32 @@
         <v>200</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[1.3824, 1.40272, 1.38138, 1.4295, 1.40595]</t>
+          <t>[1.55136, 1.49197, 1.47328, 1.48582, 1.4633]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[1.78586, 1.87267, 1.78669, 1.81542, 1.78573]</t>
+          <t>[1.84627, 1.71622, 1.70291, 1.68646, 1.70896]</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4048875</v>
+        <v>1.4785925</v>
       </c>
       <c r="H38" t="n">
-        <v>1.8151275</v>
+        <v>1.7036375</v>
       </c>
       <c r="I38" t="n">
-        <v>0.77398832864358</v>
+        <v>0.8679032364572862</v>
       </c>
     </row>
     <row r="39">
@@ -1706,32 +1706,32 @@
         <v>200</v>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[1.62714, 1.61997, 1.63526, 1.66195, 1.664]</t>
+          <t>[1.9927, 1.99475, 2.12378, 2.0232, 2.0017]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[1.81555, 1.85344, 1.86266, 1.88723, 1.87402]</t>
+          <t>[1.73056, 1.76515, 1.75206, 1.77254, 1.77357]</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.645295</v>
+        <v>2.0358575</v>
       </c>
       <c r="H39" t="n">
-        <v>1.8693375</v>
+        <v>1.76583</v>
       </c>
       <c r="I39" t="n">
-        <v>0.8801487157883475</v>
+        <v>1.152918174456205</v>
       </c>
     </row>
     <row r="40">
@@ -1739,32 +1739,32 @@
         <v>200</v>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C40" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[2.25776, 2.27725, 2.32346, 2.28966, 2.41859]</t>
+          <t>[3.59629, 3.58595, 3.5881, 3.62189, 3.59834]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[1.87597, 1.91898, 1.92714, 1.9465, 1.86954]</t>
+          <t>[1.85344, 1.84934, 1.88314, 1.90669, 1.91693]</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.32724</v>
+        <v>3.59857</v>
       </c>
       <c r="H40" t="n">
-        <v>1.91554</v>
+        <v>1.889025</v>
       </c>
       <c r="I40" t="n">
-        <v>1.21492633930902</v>
+        <v>1.904988022921878</v>
       </c>
     </row>
     <row r="41">
@@ -1772,32 +1772,32 @@
         <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C41" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D41" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[4.22893, 4.23117, 4.22093, 4.24346, 4.25062]</t>
+          <t>[5.04218, 4.94592, 5.29802, 4.97354, 4.98586]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[1.99373, 2.04288, 2.01011, 2.05517, 2.06432]</t>
+          <t>[2.14323, 2.10125, 2.6408, 2.09101, 2.13606]</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.236545</v>
+        <v>5.050835</v>
       </c>
       <c r="H41" t="n">
-        <v>2.04312</v>
+        <v>2.24228</v>
       </c>
       <c r="I41" t="n">
-        <v>2.07356640823838</v>
+        <v>2.252544285281053</v>
       </c>
     </row>
     <row r="42">
@@ -1805,32 +1805,32 @@
         <v>200</v>
       </c>
       <c r="B42" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C42" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D42" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[7.85306, 7.9145, 7.99437, 7.87251, 7.8295]</t>
+          <t>[16.3267, 16.2931, 16.6617, 16.3052, 16.215]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[2.21997, 2.28493, 2.32016, 2.3001, 2.2927]</t>
+          <t>[2.61018, 2.59584, 2.65603, 2.6409, 2.57622]</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7.90272</v>
+        <v>16.36875</v>
       </c>
       <c r="H42" t="n">
-        <v>2.2994725</v>
+        <v>2.6172475</v>
       </c>
       <c r="I42" t="n">
-        <v>3.436753429319115</v>
+        <v>6.254184978684666</v>
       </c>
     </row>
     <row r="43">
@@ -1838,32 +1838,32 @@
         <v>200</v>
       </c>
       <c r="B43" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C43" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D43" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[21.2644, 21.4108, 21.2419, 21.3371, 21.3494]</t>
+          <t>[33.1775, 32.9667, 32.7219, 32.762, 32.7055]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[2.71171, 2.73504, 2.74227, 2.74605, 2.77299]</t>
+          <t>[3.6801, 3.56045, 3.56656, 3.57478, 3.55328]</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>21.3348</v>
+        <v>32.789025</v>
       </c>
       <c r="H43" t="n">
-        <v>2.7490875</v>
+        <v>3.5637675</v>
       </c>
       <c r="I43" t="n">
-        <v>7.760684227038971</v>
+        <v>9.200663342936934</v>
       </c>
     </row>
     <row r="44">
@@ -1871,32 +1871,32 @@
         <v>200</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C44" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[1.40595, 1.37098, 1.44998, 1.43667, 1.40288]</t>
+          <t>[1.55434, 1.5504, 1.53805, 1.55238, 1.54726]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[1.78688, 1.79405, 1.84838, 1.85216, 1.81888]</t>
+          <t>[1.70291, 1.71315, 1.712, 2.07872, 1.73242]</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4151275</v>
+        <v>1.5470225</v>
       </c>
       <c r="H44" t="n">
-        <v>1.8283675</v>
+        <v>1.8090725</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7739841689375905</v>
+        <v>0.855146767197003</v>
       </c>
     </row>
     <row r="45">
@@ -1904,32 +1904,32 @@
         <v>200</v>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[1.67834, 1.72544, 1.69677, 1.68858, 1.7193]</t>
+          <t>[2.18214, 2.1719, 2.18829, 2.20672, 2.18522]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[1.8176, 1.88621, 1.87802, 1.87581, 1.91386]</t>
+          <t>[1.76224, 1.77459, 1.75104, 1.75792, 1.77971]</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7075225</v>
+        <v>2.1880325</v>
       </c>
       <c r="H45" t="n">
-        <v>1.888475</v>
+        <v>1.765815</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9041806219303936</v>
+        <v>1.239106305020628</v>
       </c>
     </row>
     <row r="46">
@@ -1937,32 +1937,32 @@
         <v>200</v>
       </c>
       <c r="B46" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C46" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[2.40333, 2.45043, 2.4064, 2.41664, 2.42893]</t>
+          <t>[4.12797, 4.10214, 4.12672, 4.10742, 4.10624]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[1.87802, 1.90054, 1.92512, 1.88416, 1.94547]</t>
+          <t>[1.85958, 1.84525, 1.84422, 1.85523, 1.81459]</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.4256</v>
+        <v>4.11063</v>
       </c>
       <c r="H46" t="n">
-        <v>1.9138225</v>
+        <v>1.8398225</v>
       </c>
       <c r="I46" t="n">
-        <v>1.267411162738446</v>
+        <v>2.234253576092259</v>
       </c>
     </row>
     <row r="47">
@@ -1970,32 +1970,32 @@
         <v>200</v>
       </c>
       <c r="B47" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C47" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D47" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[4.72064, 4.67229, 4.68992, 4.68598, 4.68467]</t>
+          <t>[7.73837, 7.8112, 7.76909, 7.81312, 7.90733]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[2.06029, 2.05907, 2.06643, 2.0273, 2.03776]</t>
+          <t>[2.11558, 2.07155, 2.6519, 2.16032, 2.21286]</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.683215000000001</v>
+        <v>7.825185000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>2.04764</v>
+        <v>2.2741575</v>
       </c>
       <c r="I47" t="n">
-        <v>2.287128108456565</v>
+        <v>3.440916031541351</v>
       </c>
     </row>
     <row r="48">
@@ -2003,32 +2003,32 @@
         <v>200</v>
       </c>
       <c r="B48" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C48" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D48" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[13.5414, 13.7452, 13.6356, 13.6314, 13.5864]</t>
+          <t>[20.734, 20.6592, 20.8568, 20.6316, 20.9306]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[2.33565, 2.29101, 2.32653, 2.3264, 2.26803]</t>
+          <t>[2.59482, 2.61939, 2.61018, 2.59686, 2.5904]</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>13.64965</v>
+        <v>20.76955</v>
       </c>
       <c r="H48" t="n">
-        <v>2.3029925</v>
+        <v>2.6042075</v>
       </c>
       <c r="I48" t="n">
-        <v>5.926918997782233</v>
+        <v>7.975382146007949</v>
       </c>
     </row>
     <row r="49">
@@ -2036,428 +2036,428 @@
         <v>200</v>
       </c>
       <c r="B49" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C49" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D49" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[30.4548, 29.9592, 29.995, 28.9577, 29.5905]</t>
+          <t>[46.0298, 46.209, 45.9776, 46.292, 46.2438]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[2.87318, 2.8889, 2.95091, 2.7863, 2.79757]</t>
+          <t>[3.72531, 3.71517, 3.69766, 3.69357, 3.92906]</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>29.6256</v>
+        <v>46.1806</v>
       </c>
       <c r="H49" t="n">
-        <v>2.85592</v>
+        <v>3.758865</v>
       </c>
       <c r="I49" t="n">
-        <v>10.37339981512087</v>
+        <v>12.28578307547624</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[1.34861, 1.37011, 1.34858, 1.35786, 1.37421]</t>
+          <t>[1.5616, 1.55648, 1.55213, 1.59853, 1.60755]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[1.77539, 1.80026, 1.78995, 1.80445, 1.80634]</t>
+          <t>[1.64762, 1.66502, 1.66707, 1.67526, 1.70394]</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.36269</v>
+        <v>1.5786725</v>
       </c>
       <c r="H50" t="n">
-        <v>1.80025</v>
+        <v>1.6778225</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7569448687682264</v>
+        <v>0.9409055487097115</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[1.46426, 1.4551, 1.50323, 1.49402, 1.49299]</t>
+          <t>[2.31629, 2.30074, 2.30605, 2.30298, 2.31523]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[1.73466, 1.69574, 1.73363, 1.75514, 1.72032]</t>
+          <t>[1.73261, 1.74355, 1.71085, 1.74093, 1.7111]</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.486335</v>
+        <v>2.30625</v>
       </c>
       <c r="H51" t="n">
-        <v>1.7262075</v>
+        <v>1.7266075</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8610407497360544</v>
+        <v>1.335711793212991</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C52" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="D52" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[2.00397, 2.02854, 2.08179, 2.06758, 2.08771]</t>
+          <t>[4.59162, 4.57834, 4.56586, 4.58035, 4.55782]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[1.74899, 1.84934, 1.90157, 1.8647, 1.86992]</t>
+          <t>[1.88416, 1.92922, 1.88947, 1.89024, 1.86573]</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.066405</v>
+        <v>4.5705925</v>
       </c>
       <c r="H52" t="n">
-        <v>1.8713825</v>
+        <v>1.893665</v>
       </c>
       <c r="I52" t="n">
-        <v>1.104213061733771</v>
+        <v>2.413622525631513</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B53" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C53" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="D53" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[3.6137, 3.67309, 3.67309, 3.6361, 3.64941]</t>
+          <t>[13.4144, 13.436, 13.4216, 13.4728, 13.7022]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[1.94458, 1.93843, 1.89747, 1.95584, 2.00598]</t>
+          <t>[2.1463, 2.18624, 2.15542, 2.11843, 2.11648]</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.6579225</v>
+        <v>13.50815</v>
       </c>
       <c r="H53" t="n">
-        <v>1.94943</v>
+        <v>2.1441425</v>
       </c>
       <c r="I53" t="n">
-        <v>1.876406180268078</v>
+        <v>6.300024368716164</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B54" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C54" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="D54" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[5.02579, 5.03398, 5.00326, 5.01965, 4.99283]</t>
+          <t>[29.5168, 29.3755, 29.2465, 29.1308, 29.0724]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[2.13398, 2.19853, 2.22819, 2.22106, 2.20813]</t>
+          <t>[2.7433, 2.73197, 2.76982, 2.73715, 2.74022]</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.01243</v>
+        <v>29.2063</v>
       </c>
       <c r="H54" t="n">
-        <v>2.2139775</v>
+        <v>2.74479</v>
       </c>
       <c r="I54" t="n">
-        <v>2.26399319776285</v>
+        <v>10.64063188804972</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B55" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C55" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="D55" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[16.3758, 16.5007, 16.462, 16.4721, 16.4106]</t>
+          <t>[68.7974, 61.398, 61.612, 60.9977, 61.3151]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[2.62349, 2.67917, 2.73101, 2.68595, 2.69414]</t>
+          <t>[4.05606, 3.67789, 3.72634, 3.71171, 3.68435]</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>16.46135</v>
+        <v>61.3307</v>
       </c>
       <c r="H55" t="n">
-        <v>2.6975675</v>
+        <v>3.7000725</v>
       </c>
       <c r="I55" t="n">
-        <v>6.102294011178589</v>
+        <v>16.57554007387693</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[1.33018, 1.31878, 1.32403, 1.83808, 1.7847]</t>
+          <t>[1.59923, 1.58717, 1.56582, 1.58003, 1.63533]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[1.6937, 1.7705, 1.78688, 1.71622, 2.37562]</t>
+          <t>[1.66627, 1.66074, 1.68038, 1.67514, 1.69242]</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5663975</v>
+        <v>1.5920875</v>
       </c>
       <c r="H56" t="n">
-        <v>1.912305</v>
+        <v>1.67717</v>
       </c>
       <c r="I56" t="n">
-        <v>0.8191148901456619</v>
+        <v>0.9492701992046124</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[1.58614, 1.56365, 1.54931, 1.59642, 1.56365]</t>
+          <t>[2.55293, 2.5559, 2.59082, 2.57946, 2.57238]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[1.73875, 1.72032, 1.7449, 1.72134, 1.73466]</t>
+          <t>[1.73245, 1.75517, 1.79693, 1.78688, 1.75309]</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5682575</v>
+        <v>2.57464</v>
       </c>
       <c r="H57" t="n">
-        <v>1.730305</v>
+        <v>1.7730175</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9063474358566843</v>
+        <v>1.452123286995193</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C58" t="n">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[2.18925, 2.21696, 2.21261, 2.21184, 2.22925]</t>
+          <t>[6.3959, 6.38544, 6.39603, 6.37235, 6.48704]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[1.81146, 1.83091, 1.7879, 1.80429, 1.82682]</t>
+          <t>[1.97933, 1.89542, 1.95309, 1.89725, 1.9241]</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.217665</v>
+        <v>6.410215</v>
       </c>
       <c r="H58" t="n">
-        <v>1.81248</v>
+        <v>1.917465</v>
       </c>
       <c r="I58" t="n">
-        <v>1.223552811617232</v>
+        <v>3.343067539694335</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B59" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C59" t="n">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="D59" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[4.21069, 4.30182, 4.30493, 4.14912, 4.1431]</t>
+          <t>[30.9248, 31.0364, 30.4781, 31.1931, 30.4118]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[1.97632, 1.88928, 1.92614, 1.93229, 1.93331]</t>
+          <t>[2.37638, 2.27123, 2.25584, 2.24768, 2.2497]</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.2247425</v>
+        <v>30.77985</v>
       </c>
       <c r="H59" t="n">
-        <v>1.920255</v>
+        <v>2.2561125</v>
       </c>
       <c r="I59" t="n">
-        <v>2.200094518696735</v>
+        <v>13.64287020261623</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B60" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C60" t="n">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="D60" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[7.82438, 7.84077, 7.83872, 7.81312, 7.84166]</t>
+          <t>[55.1565, 53.0995, 52.9582, 51.8226, 51.5091]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[2.09203, 2.16061, 2.1248, 2.10218, 2.11427]</t>
+          <t>[2.84365, 2.78733, 2.85286, 2.74739, 2.79245]</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.8335675</v>
+        <v>52.34735</v>
       </c>
       <c r="H60" t="n">
-        <v>2.125465</v>
+        <v>2.7950075</v>
       </c>
       <c r="I60" t="n">
-        <v>3.6855782146495</v>
+        <v>18.72887639836387</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="B61" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C61" t="n">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="D61" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[20.7186, 20.821, 20.8404, 20.8855, 20.734]</t>
+          <t>[113.157, 113.317, 113.589, 113.129, 113.209]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[2.60403, 2.76346, 2.64182, 3.13008, 2.60301]</t>
+          <t>[4.27482, 4.14509, 4.10611, 4.1175, 4.11341]</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>20.820225</v>
+        <v>113.311</v>
       </c>
       <c r="H61" t="n">
-        <v>2.7845925</v>
+        <v>4.1205275</v>
       </c>
       <c r="I61" t="n">
-        <v>7.476937828425525</v>
+        <v>27.49914907739361</v>
       </c>
     </row>
     <row r="62">
@@ -2465,32 +2465,32 @@
         <v>400</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C62" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[1.30867, 1.30253, 1.30048, 1.32294, 1.31869]</t>
+          <t>[1.42336, 1.42848, 1.42131, 1.44483, 1.49283]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[1.70208, 1.70598, 1.65354, 1.63738, 1.64147]</t>
+          <t>[1.71315, 1.67731, 1.70086, 1.71315, 1.70906]</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.31116</v>
+        <v>1.4468625</v>
       </c>
       <c r="H62" t="n">
-        <v>1.6595925</v>
+        <v>1.700095</v>
       </c>
       <c r="I62" t="n">
-        <v>0.790049364527738</v>
+        <v>0.8510480296689302</v>
       </c>
     </row>
     <row r="63">
@@ -2498,32 +2498,32 @@
         <v>400</v>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C63" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[1.56058, 1.56467, 1.5616, 1.57386, 1.55952]</t>
+          <t>[2.03878, 2.01933, 2.00499, 2.02653, 2.08998]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[1.67322, 1.66602, 1.69267, 1.71008, 1.68346]</t>
+          <t>[1.79814, 1.72246, 1.80019, 1.75744, 1.89542]</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.5649125</v>
+        <v>2.0352075</v>
       </c>
       <c r="H63" t="n">
-        <v>1.6880575</v>
+        <v>1.7938775</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9270492859396079</v>
+        <v>1.134529810424625</v>
       </c>
     </row>
     <row r="64">
@@ -2531,32 +2531,32 @@
         <v>400</v>
       </c>
       <c r="B64" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C64" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D64" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[2.28864, 2.33165, 2.30195, 2.31526, 2.29683]</t>
+          <t>[3.63418, 3.63827, 3.70995, 3.63418, 3.57981]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[1.72426, 1.77392, 1.74694, 1.75939, 1.77843]</t>
+          <t>[1.85754, 1.88211, 2.09184, 1.92512, 1.84218]</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.3114225</v>
+        <v>3.6405525</v>
       </c>
       <c r="H64" t="n">
-        <v>1.76467</v>
+        <v>1.9353125</v>
       </c>
       <c r="I64" t="n">
-        <v>1.309832716598571</v>
+        <v>1.881118682383336</v>
       </c>
     </row>
     <row r="65">
@@ -2564,32 +2564,32 @@
         <v>400</v>
       </c>
       <c r="B65" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C65" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D65" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[4.55168, 4.57114, 4.93587, 4.5783, 4.55373]</t>
+          <t>[5.00557, 4.9879, 4.98576, 4.9705, 4.96131]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[1.88342, 1.87981, 2.2784, 1.90259, 1.88211]</t>
+          <t>[2.08998, 2.14528, 2.07962, 2.08691, 2.07053]</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.65976</v>
+        <v>4.9763675</v>
       </c>
       <c r="H65" t="n">
-        <v>1.9857275</v>
+        <v>2.095585</v>
       </c>
       <c r="I65" t="n">
-        <v>2.346626110581638</v>
+        <v>2.374691315312908</v>
       </c>
     </row>
     <row r="66">
@@ -2597,32 +2597,32 @@
         <v>400</v>
       </c>
       <c r="B66" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D66" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[13.3253, 13.6663, 13.4666, 13.8363, 13.7277]</t>
+          <t>[16.1587, 16.1772, 16.1606, 16.2066, 16.1761]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[2.10637, 2.16451, 2.10842, 2.14819, 2.10637]</t>
+          <t>[2.58752, 2.61725, 2.59174, 2.60813, 2.58458]</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>13.674225</v>
+        <v>16.180125</v>
       </c>
       <c r="H66" t="n">
-        <v>2.1318725</v>
+        <v>2.600425</v>
       </c>
       <c r="I66" t="n">
-        <v>6.414185182275206</v>
+        <v>6.222107924666161</v>
       </c>
     </row>
     <row r="67">
@@ -2630,32 +2630,32 @@
         <v>400</v>
       </c>
       <c r="B67" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C67" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D67" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[29.0529, 29.3827, 29.3304, 29.3212, 29.1613]</t>
+          <t>[32.6943, 32.6748, 32.8468, 32.7793, 32.766]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[2.61235, 2.69798, 2.80979, 3.08224, 2.67571]</t>
+          <t>[3.64682, 3.62502, 3.62803, 3.62086, 3.64442]</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>29.2989</v>
+        <v>32.766725</v>
       </c>
       <c r="H67" t="n">
-        <v>2.81643</v>
+        <v>3.6295825</v>
       </c>
       <c r="I67" t="n">
-        <v>10.40285041701729</v>
+        <v>9.027684313553969</v>
       </c>
     </row>
     <row r="68">
@@ -2663,32 +2663,32 @@
         <v>400</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C68" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[1.38854, 1.3353, 1.3527, 1.33939, 1.33632]</t>
+          <t>[1.54829, 1.58413, 1.70496, 1.6855, 1.52474]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[1.64653, 1.61373, 1.72534, 1.65478, 1.63709]</t>
+          <t>[1.77766, 1.72442, 2.34496, 1.83933, 1.69062]</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3409275</v>
+        <v>1.6248325</v>
       </c>
       <c r="H68" t="n">
-        <v>1.657735</v>
+        <v>1.8998325</v>
       </c>
       <c r="I68" t="n">
-        <v>0.8088913487378863</v>
+        <v>0.855250397074479</v>
       </c>
     </row>
     <row r="69">
@@ -2696,32 +2696,32 @@
         <v>400</v>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="D69" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[1.66093, 1.6681, 1.67421, 1.65766, 1.64864]</t>
+          <t>[2.16474, 2.16883, 2.27434, 2.19315, 2.23437]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[1.82374, 1.69267, 1.68141, 1.68778, 1.67424]</t>
+          <t>[1.73056, 1.77478, 1.93536, 1.78579, 1.76845]</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6621525</v>
+        <v>2.2176725</v>
       </c>
       <c r="H69" t="n">
-        <v>1.684025</v>
+        <v>1.816095</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9870117723905523</v>
+        <v>1.221121417106484</v>
       </c>
     </row>
     <row r="70">
@@ -2729,32 +2729,32 @@
         <v>400</v>
       </c>
       <c r="B70" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C70" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="D70" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[2.57331, 2.60704, 2.58765, 2.58432, 2.59994]</t>
+          <t>[4.16563, 4.25674, 4.17997, 4.13283, 4.27309]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[1.73261, 1.74592, 1.77357, 1.80019, 1.7449]</t>
+          <t>[1.86646, 2.0183, 1.89744, 1.87904, 2.05926]</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.5947375</v>
+        <v>4.2106575</v>
       </c>
       <c r="H70" t="n">
-        <v>1.766145</v>
+        <v>1.96351</v>
       </c>
       <c r="I70" t="n">
-        <v>1.469153155601607</v>
+        <v>2.144454319051087</v>
       </c>
     </row>
     <row r="71">
@@ -2762,32 +2762,32 @@
         <v>400</v>
       </c>
       <c r="B71" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C71" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="D71" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[6.37338, 6.38362, 6.37939, 6.37542, 6.39302]</t>
+          <t>[7.85715, 7.7865, 7.7783, 7.90938, 7.74051]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[1.89645, 2.35622, 1.89235, 1.87475, 1.88314]</t>
+          <t>[2.14426, 2.14618, 2.13171, 2.1144, 2.10195]</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6.3828625</v>
+        <v>7.8036725</v>
       </c>
       <c r="H71" t="n">
-        <v>2.001615</v>
+        <v>2.12356</v>
       </c>
       <c r="I71" t="n">
-        <v>3.188856248579272</v>
+        <v>3.674806692535177</v>
       </c>
     </row>
     <row r="72">
@@ -2795,32 +2795,32 @@
         <v>400</v>
       </c>
       <c r="B72" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C72" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="D72" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[30.505, 30.5489, 30.6002, 30.5142, 30.591]</t>
+          <t>[20.5415, 20.7995, 20.8648, 20.7042, 20.6449]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[2.23514, 2.21174, 2.22198, 2.18931, 2.21798]</t>
+          <t>[2.56826, 2.62042, 2.59162, 2.5937, 2.6264]</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>30.563575</v>
+        <v>20.75335</v>
       </c>
       <c r="H72" t="n">
-        <v>2.2102525</v>
+        <v>2.608035</v>
       </c>
       <c r="I72" t="n">
-        <v>13.82809203925796</v>
+        <v>7.957466061613435</v>
       </c>
     </row>
     <row r="73">
@@ -2828,626 +2828,626 @@
         <v>400</v>
       </c>
       <c r="B73" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C73" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="D73" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[55.1393, 55.2755, 51.8218, 51.5318, 51.4991]</t>
+          <t>[46.2285, 46.2592, 46.5601, 46.1496, 46.0943]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[2.87642, 2.89485, 2.70301, 2.6743, 2.69312]</t>
+          <t>[3.71299, 3.71686, 3.73146, 3.72227, 3.71405]</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>52.53205</v>
+        <v>46.2658</v>
       </c>
       <c r="H73" t="n">
-        <v>2.74132</v>
+        <v>3.72116</v>
       </c>
       <c r="I73" t="n">
-        <v>19.16304918798243</v>
+        <v>12.43316600199937</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C74" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[1.2759, 1.27283, 1.23504, 1.26874, 1.2841]</t>
+          <t>[1.59642, 1.62304, 1.67427, 1.68858, 1.60051]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[1.66093, 1.62509, 1.6384, 1.63021, 1.65069]</t>
+          <t>[1.73773, 1.75104, 1.91984, 1.86166, 1.72032]</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2651775</v>
+        <v>1.6466</v>
       </c>
       <c r="H74" t="n">
-        <v>1.6360975</v>
+        <v>1.813215</v>
       </c>
       <c r="I74" t="n">
-        <v>0.7732897947707885</v>
+        <v>0.9081107314907497</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C75" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[1.50323, 1.5215, 1.57466, 1.5104, 1.52986]</t>
+          <t>[2.30112, 2.40845, 2.3193, 2.32858, 2.28966]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[1.65885, 2.07981, 1.66003, 1.66502, 1.67424]</t>
+          <t>[1.7344, 1.92, 1.79917, 1.77152, 1.74051]</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.534105</v>
+        <v>2.3364975</v>
       </c>
       <c r="H75" t="n">
-        <v>1.769775</v>
+        <v>1.8078</v>
       </c>
       <c r="I75" t="n">
-        <v>0.8668361797403624</v>
+        <v>1.29245353468304</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B76" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C76" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D76" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[2.14733, 2.17702, 2.16269, 2.14221, 2.17293]</t>
+          <t>[4.54349, 4.58845, 4.56499, 4.59878, 4.608]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[1.73155, 1.73875, 1.72544, 1.70685, 1.74902]</t>
+          <t>[1.88006, 1.87699, 1.8688, 1.87075, 1.93229]</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.1637125</v>
+        <v>4.590055</v>
       </c>
       <c r="H76" t="n">
-        <v>1.730015</v>
+        <v>1.8872075</v>
       </c>
       <c r="I76" t="n">
-        <v>1.250690022918876</v>
+        <v>2.432194128096672</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B77" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C77" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D77" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[4.10602, 4.0919, 4.10112, 4.07552, 4.06928]</t>
+          <t>[13.4758, 13.8015, 13.6653, 13.4625, 13.5076]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[1.88416, 1.84109, 1.8944, 1.81965, 2.10326]</t>
+          <t>[2.11968, 2.12582, 2.1321, 2.1207, 2.12557]</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.084455</v>
+        <v>13.609225</v>
       </c>
       <c r="H77" t="n">
-        <v>1.9146</v>
+        <v>2.1260475</v>
       </c>
       <c r="I77" t="n">
-        <v>2.133320275775619</v>
+        <v>6.401185768427093</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B78" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C78" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D78" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[7.79878, 7.84896, 7.66566, 7.67712, 7.83242]</t>
+          <t>[29.269, 29.5117, 29.098, 29.7032, 29.8198]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[2.15859, 2.07962, 2.1513, 2.15859, 2.24358]</t>
+          <t>[2.67469, 2.68595, 2.67264, 2.6921, 2.6583]</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>7.75604</v>
+        <v>29.533175</v>
       </c>
       <c r="H78" t="n">
-        <v>2.1582725</v>
+        <v>2.6772475</v>
       </c>
       <c r="I78" t="n">
-        <v>3.593633334066945</v>
+        <v>11.03117100678962</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B79" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C79" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D79" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[20.8865, 21.0995, 20.948, 20.9918, 21.505]</t>
+          <t>[68.6019, 68.8394, 61.0877, 60.9137, 61.0978]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[2.78109, 2.83853, 2.79757, 2.7392, 2.91923]</t>
+          <t>[4.05094, 3.8993, 3.5543, 3.53197, 3.56941]</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>21.136075</v>
+        <v>62.98465</v>
       </c>
       <c r="H79" t="n">
-        <v>2.8236325</v>
+        <v>3.638745</v>
       </c>
       <c r="I79" t="n">
-        <v>7.485419933365974</v>
+        <v>17.30944322836583</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[1.40819, 1.4807, 1.38035, 1.4121, 1.43053]</t>
+          <t>[1.60461, 1.57798, 1.6087, 1.59126, 1.6937]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[1.80531, 1.85549, 1.79814, 1.88006, 1.82067]</t>
+          <t>[1.65171, 1.67206, 1.66906, 1.70598, 1.70794]</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.42592</v>
+        <v>1.61791</v>
       </c>
       <c r="H80" t="n">
-        <v>1.83859</v>
+        <v>1.68876</v>
       </c>
       <c r="I80" t="n">
-        <v>0.7755508297118987</v>
+        <v>0.9580461403633435</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[1.67936, 1.68141, 1.67731, 1.67936, 1.70086]</t>
+          <t>[2.6071, 2.58355, 2.59891, 2.59277, 2.58138]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[1.81043, 1.88928, 1.83814, 1.86586, 1.79402]</t>
+          <t>[1.75219, 1.7632, 1.756, 1.80838, 1.7663]</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.684735</v>
+        <v>2.5891525</v>
       </c>
       <c r="H81" t="n">
-        <v>1.846825</v>
+        <v>1.77347</v>
       </c>
       <c r="I81" t="n">
-        <v>0.912233156904417</v>
+        <v>1.459935888399578</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B82" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C82" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D82" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[2.42886, 2.42278, 2.40845, 2.42381, 2.38592]</t>
+          <t>[6.42355, 6.38259, 6.4256, 6.39309, 6.38054]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[1.88304, 1.93322, 1.91824, 1.87904, 1.87731]</t>
+          <t>[1.88278, 1.87802, 1.95008, 1.89235, 1.90464]</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.41024</v>
+        <v>6.395455</v>
       </c>
       <c r="H82" t="n">
-        <v>1.9019525</v>
+        <v>1.9062725</v>
       </c>
       <c r="I82" t="n">
-        <v>1.267245107330493</v>
+        <v>3.354953187437788</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B83" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C83" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D83" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[4.64896, 4.65715, 4.67046, 4.70627, 4.63565]</t>
+          <t>[30.6042, 30.507, 30.5705, 30.5756, 30.586]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[2.05005, 2.03059, 2.03878, 2.01392, 1.98451]</t>
+          <t>[2.20147, 2.1975, 2.20896, 2.22003, 2.22595]</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.6673825</v>
+        <v>30.559775</v>
       </c>
       <c r="H83" t="n">
-        <v>2.01695</v>
+        <v>2.213109999999999</v>
       </c>
       <c r="I83" t="n">
-        <v>2.314079426857384</v>
+        <v>13.80852058867386</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B84" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C84" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D84" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[13.2598, 13.5322, 13.6982, 13.867, 13.9254]</t>
+          <t>[55.1619, 55.2641, 51.6936, 51.5308, 51.8062]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[2.19238, 2.27616, 2.30707, 2.27629, 2.26611]</t>
+          <t>[2.85811, 2.7136, 2.7136, 2.6921, 2.70195]</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>13.7557</v>
+        <v>52.57367499999999</v>
       </c>
       <c r="H84" t="n">
-        <v>2.2814075</v>
+        <v>2.7053125</v>
       </c>
       <c r="I84" t="n">
-        <v>6.029479608531138</v>
+        <v>19.43349428208386</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B85" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C85" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D85" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[29.5557, 29.824, 29.8506, 29.5598, 29.6376]</t>
+          <t>[113.146, 113.124, 113.684, 113.442, 113.335]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[2.90477, 2.84365, 2.86614, 2.86515, 2.86515]</t>
+          <t>[3.87686, 3.85946, 3.88301, 3.93926, 3.87789]</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>29.718</v>
+        <v>113.39625</v>
       </c>
       <c r="H85" t="n">
-        <v>2.8600225</v>
+        <v>3.889905</v>
       </c>
       <c r="I85" t="n">
-        <v>10.39082734488977</v>
+        <v>29.15141886498514</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C86" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[1.45613, 1.42336, 1.42848, 1.47354, 1.45203]</t>
+          <t>[1.79709, 1.79712, 1.8031, 1.80515, 1.89747]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[1.792, 1.78278, 1.80429, 1.85539, 1.74998]</t>
+          <t>[1.70662, 1.73898, 1.7135, 1.74477, 1.68835]</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.4443525</v>
+        <v>1.82571</v>
       </c>
       <c r="H86" t="n">
-        <v>1.79811</v>
+        <v>1.7214</v>
       </c>
       <c r="I86" t="n">
-        <v>0.8032614801096707</v>
+        <v>1.060596026490066</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C87" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="D87" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[1.76026, 1.76026, 1.76742, 1.792, 1.76733]</t>
+          <t>[3.73437, 3.7335, 3.70995, 3.73056, 3.73043]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[1.83194, 1.87392, 1.88096, 1.91142, 1.81453]</t>
+          <t>[1.75126, 1.7664, 1.75104, 1.75594, 1.7623]</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7717525</v>
+        <v>3.72611</v>
       </c>
       <c r="H87" t="n">
-        <v>1.8702075</v>
+        <v>1.75892</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9473561088809666</v>
+        <v>2.118407886657722</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B88" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C88" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="D88" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[2.71162, 2.6665, 2.66118, 2.6417, 2.70438]</t>
+          <t>[13.6694, 13.7277, 13.738, 13.7122, 13.7247]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[1.89133, 1.88109, 1.90358, 1.88006, 1.9159]</t>
+          <t>[1.91386, 1.93619, 1.93229, 1.92512, 2.58963]</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.66844</v>
+        <v>13.72565</v>
       </c>
       <c r="H88" t="n">
-        <v>1.8951575</v>
+        <v>2.0958075</v>
       </c>
       <c r="I88" t="n">
-        <v>1.408030730955079</v>
+        <v>6.549098617120131</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B89" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C89" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="D89" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[6.46554, 6.43683, 6.42675, 6.42992, 6.44915]</t>
+          <t>[63.1306, 62.8234, 61.0486, 60.3863, 60.8818]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[2.02138, 1.99654, 1.96397, 1.95379, 1.95686]</t>
+          <t>[2.23926, 2.26602, 2.16486, 2.22621, 2.16982]</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6.435662499999999</v>
+        <v>61.285025</v>
       </c>
       <c r="H89" t="n">
-        <v>1.96779</v>
+        <v>2.2067275</v>
       </c>
       <c r="I89" t="n">
-        <v>3.270502695917755</v>
+        <v>27.77190432438985</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B90" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C90" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="D90" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[30.5531, 32.2529, 30.6227, 30.635, 30.6852]</t>
+          <t>[108.092, 108.116, 108.271, 108.317, 108.327]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[2.24842, 2.25382, 2.25658, 2.25382, 2.35402]</t>
+          <t>[2.94605, 2.816, 2.80474, 2.8631, 2.80678]</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>31.04895</v>
+        <v>108.25775</v>
       </c>
       <c r="H90" t="n">
-        <v>2.27956</v>
+        <v>2.822655</v>
       </c>
       <c r="I90" t="n">
-        <v>13.62058906104687</v>
+        <v>38.35316395379527</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="B91" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C91" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="D91" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[55.4055, 55.2755, 55.3533, 54.8454, 53.4179]</t>
+          <t>[241.109, 241.112, 241.4, 241.145, 241.144]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[2.90886, 2.88768, 3.11808, 2.74819, 3.07696]</t>
+          <t>[4.30285, 4.27008, 4.29466, 4.2967, 4.2743]</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>54.723025</v>
+        <v>241.20025</v>
       </c>
       <c r="H91" t="n">
-        <v>2.9577275</v>
+        <v>4.283935</v>
       </c>
       <c r="I91" t="n">
-        <v>18.50171288599102</v>
+        <v>56.30343364220045</v>
       </c>
     </row>
     <row r="92">
@@ -3455,32 +3455,32 @@
         <v>800</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[1.44179, 1.45613, 1.46534, 1.43034, 1.50426]</t>
+          <t>[1.53498, 1.4889, 1.48288, 1.50515, 1.54915]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[1.73296, 1.77766, 1.7664, 1.84115, 1.78074]</t>
+          <t>[1.88115, 1.70896, 1.71827, 1.70886, 1.71603]</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.4640175</v>
+        <v>1.50652</v>
       </c>
       <c r="H92" t="n">
-        <v>1.7914875</v>
+        <v>1.71303</v>
       </c>
       <c r="I92" t="n">
-        <v>0.8172077672883569</v>
+        <v>0.8794475286480681</v>
       </c>
     </row>
     <row r="93">
@@ -3488,32 +3488,32 @@
         <v>800</v>
       </c>
       <c r="B93" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C93" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[2.46477, 1.96813, 2.42074, 1.95789, 1.96915]</t>
+          <t>[2.21082, 2.2057, 2.15245, 2.15347, 2.15654]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[2.17498, 1.80112, 2.31594, 1.85827, 1.78995]</t>
+          <t>[1.79712, 1.79098, 1.73875, 1.75002, 1.74387]</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.0789775</v>
+        <v>2.16704</v>
       </c>
       <c r="H93" t="n">
-        <v>1.94132</v>
+        <v>1.755905</v>
       </c>
       <c r="I93" t="n">
-        <v>1.070909226711722</v>
+        <v>1.234144216230377</v>
       </c>
     </row>
     <row r="94">
@@ -3521,32 +3521,32 @@
         <v>800</v>
       </c>
       <c r="B94" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C94" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="D94" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[3.83078, 4.16746, 3.81235, 3.81856, 3.82976]</t>
+          <t>[4.13082, 4.10726, 4.10317, 4.08576, 4.11341]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[1.86368, 1.95277, 1.86608, 1.84934, 1.92819]</t>
+          <t>[1.8809, 1.88314, 1.85754, 1.89747, 1.86573]</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.9070325</v>
+        <v>4.102399999999999</v>
       </c>
       <c r="H94" t="n">
-        <v>1.899095</v>
+        <v>1.87597</v>
       </c>
       <c r="I94" t="n">
-        <v>2.057312825319428</v>
+        <v>2.186815354190098</v>
       </c>
     </row>
     <row r="95">
@@ -3554,32 +3554,32 @@
         <v>800</v>
       </c>
       <c r="B95" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C95" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="D95" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[13.858, 13.7974, 13.8025, 13.7923, 13.826]</t>
+          <t>[7.63597, 7.83142, 7.75578, 7.69533, 7.78138]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[2.46378, 2.06944, 2.34086, 2.38285, 2.08794]</t>
+          <t>[2.18931, 2.63578, 2.16269, 2.14835, 2.1545]</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>13.80455</v>
+        <v>7.7659775</v>
       </c>
       <c r="H95" t="n">
-        <v>2.2202725</v>
+        <v>2.27533</v>
       </c>
       <c r="I95" t="n">
-        <v>6.217502581327292</v>
+        <v>3.413121393380301</v>
       </c>
     </row>
     <row r="96">
@@ -3587,32 +3587,32 @@
         <v>800</v>
       </c>
       <c r="B96" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C96" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="D96" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[63.7768, 60.8735, 61.2636, 63.3201, 60.8266]</t>
+          <t>[20.7839, 20.8927, 20.6807, 20.7176, 20.6531]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[2.67878, 2.23437, 2.59446, 2.34189, 2.23539]</t>
+          <t>[2.72998, 2.71629, 2.70541, 2.7095, 2.72998]</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>61.57095</v>
+        <v>20.736025</v>
       </c>
       <c r="H96" t="n">
-        <v>2.3515275</v>
+        <v>2.715295</v>
       </c>
       <c r="I96" t="n">
-        <v>26.18338505503338</v>
+        <v>7.63674849325764</v>
       </c>
     </row>
     <row r="97">
@@ -3620,32 +3620,1814 @@
         <v>800</v>
       </c>
       <c r="B97" t="n">
+        <v>128</v>
+      </c>
+      <c r="C97" t="n">
+        <v>100</v>
+      </c>
+      <c r="D97" t="n">
+        <v>128</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>[46.2141, 46.294, 46.6215, 46.124, 46.1601]</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>[4.05168, 3.99258, 3.9465, 3.92675, 3.91066]</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>46.2999</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3.9441225</v>
+      </c>
+      <c r="I97" t="n">
+        <v>11.7389609475872</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>800</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4</v>
+      </c>
+      <c r="C98" t="n">
+        <v>200</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>[1.56058, 1.58003, 1.56774, 1.57696, 1.56058]</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>[1.6855, 2.10842, 1.66298, 1.72032, 1.64659]</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1.5713275</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.7845775</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.8805039288010748</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>800</v>
+      </c>
+      <c r="B99" t="n">
+        <v>8</v>
+      </c>
+      <c r="C99" t="n">
+        <v>200</v>
+      </c>
+      <c r="D99" t="n">
+        <v>8</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>[2.28454, 2.29069, 2.29171, 2.28454, 2.28557]</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>[1.72957, 1.70906, 1.72646, 1.74899, 1.73747]</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2.2881275</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.730495</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.322238723602206</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>800</v>
+      </c>
+      <c r="B100" t="n">
+        <v>16</v>
+      </c>
+      <c r="C100" t="n">
+        <v>200</v>
+      </c>
+      <c r="D100" t="n">
+        <v>16</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>[4.57114, 4.61098, 4.57011, 4.53018, 4.53734]</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>[1.86141, 1.88211, 1.98438, 1.82954, 1.86672]</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>4.5621525</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.8906875</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2.41295957158441</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>800</v>
+      </c>
+      <c r="B101" t="n">
+        <v>32</v>
+      </c>
+      <c r="C101" t="n">
+        <v>200</v>
+      </c>
+      <c r="D101" t="n">
+        <v>32</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>[13.4326, 13.7708, 13.7726, 13.4871, 13.4111]</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>[2.11459, 2.12685, 2.13059, 2.11866, 2.11318]</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>13.6104</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2.12232</v>
+      </c>
+      <c r="I101" t="n">
+        <v>6.412982019676579</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>800</v>
+      </c>
+      <c r="B102" t="n">
         <v>64</v>
       </c>
-      <c r="C97" t="n">
-        <v>800</v>
-      </c>
-      <c r="D97" t="n">
+      <c r="C102" t="n">
+        <v>200</v>
+      </c>
+      <c r="D102" t="n">
         <v>64</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>[108.37, 107.93, 108.172, 108.37, 107.999]</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>[3.16518, 2.7689, 2.89984, 2.78189, 2.75763]</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>108.11775</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2.802065</v>
-      </c>
-      <c r="I97" t="n">
-        <v>38.58502568641342</v>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>[28.9823, 29.0836, 29.3929, 28.9987, 28.9536]</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>[2.72384, 2.70525, 2.75968, 2.77504, 2.71242]</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>29.1072</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2.7380975</v>
+      </c>
+      <c r="I102" t="n">
+        <v>10.63044687050041</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>800</v>
+      </c>
+      <c r="B103" t="n">
+        <v>128</v>
+      </c>
+      <c r="C103" t="n">
+        <v>200</v>
+      </c>
+      <c r="D103" t="n">
+        <v>128</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>[68.7317, 67.2492, 61.2485, 61.1052, 61.1133]</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>[3.9721, 3.9656, 3.67718, 3.72429, 3.79802]</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>62.67905</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3.7912725</v>
+      </c>
+      <c r="I103" t="n">
+        <v>16.53245711037653</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>800</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4</v>
+      </c>
+      <c r="C104" t="n">
+        <v>400</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>[1.55722, 1.56445, 1.5616, 1.64966, 1.65786]</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>[1.63226, 1.61568, 1.66829, 1.67155, 1.68208]</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1.6083925</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.6594</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.9692614800530311</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>800</v>
+      </c>
+      <c r="B105" t="n">
+        <v>8</v>
+      </c>
+      <c r="C105" t="n">
+        <v>400</v>
+      </c>
+      <c r="D105" t="n">
+        <v>8</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>[2.5897, 2.55386, 2.6071, 2.5897, 2.59994]</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>[1.74662, 1.75923, 1.79907, 1.77869, 1.76637]</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>2.58765</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1.77584</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1.457141409135958</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>800</v>
+      </c>
+      <c r="B106" t="n">
+        <v>16</v>
+      </c>
+      <c r="C106" t="n">
+        <v>400</v>
+      </c>
+      <c r="D106" t="n">
+        <v>16</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>[6.40307, 6.38576, 6.38544, 6.36518, 6.39386]</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>[1.86541, 1.88403, 1.87578, 1.86675, 1.87254]</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>6.38256</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.874775</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.404440532863944</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>800</v>
+      </c>
+      <c r="B107" t="n">
+        <v>32</v>
+      </c>
+      <c r="C107" t="n">
+        <v>400</v>
+      </c>
+      <c r="D107" t="n">
+        <v>32</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>[30.7364, 30.6217, 30.6268, 30.6574, 30.5797]</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>[2.24154, 2.20672, 2.21462, 2.21626, 2.20774]</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>30.6214</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2.211335</v>
+      </c>
+      <c r="I107" t="n">
+        <v>13.84747222831457</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>800</v>
+      </c>
+      <c r="B108" t="n">
+        <v>64</v>
+      </c>
+      <c r="C108" t="n">
+        <v>400</v>
+      </c>
+      <c r="D108" t="n">
+        <v>64</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>[56.8873, 55.1834, 51.627, 51.6823, 51.3085]</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>[2.97962, 2.89382, 2.78221, 3.06157, 2.72486]</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>52.45030000000001</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2.865615</v>
+      </c>
+      <c r="I108" t="n">
+        <v>18.30333104761107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>800</v>
+      </c>
+      <c r="B109" t="n">
+        <v>128</v>
+      </c>
+      <c r="C109" t="n">
+        <v>400</v>
+      </c>
+      <c r="D109" t="n">
+        <v>128</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>[113.193, 113.361, 113.241, 113.261, 113.122]</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>[4.02125, 3.8767, 3.88419, 4.06221, 3.86867]</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>113.24625</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.9229425</v>
+      </c>
+      <c r="I109" t="n">
+        <v>28.86768031904623</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>800</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4</v>
+      </c>
+      <c r="C110" t="n">
+        <v>800</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>[1.8176, 1.77459, 1.8001, 1.78074, 1.89747]</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>[1.67731, 1.63123, 1.69043, 1.69882, 1.67926]</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1.813225</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.674935</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.082564398021416</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>800</v>
+      </c>
+      <c r="B111" t="n">
+        <v>8</v>
+      </c>
+      <c r="C111" t="n">
+        <v>800</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>[3.72122, 3.71686, 3.70365, 3.72941, 3.712]</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>[1.72435, 1.72851, 1.74464, 1.74301, 1.73158]</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>3.71548</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.736935</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2.139101348064262</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>800</v>
+      </c>
+      <c r="B112" t="n">
+        <v>16</v>
+      </c>
+      <c r="C112" t="n">
+        <v>800</v>
+      </c>
+      <c r="D112" t="n">
+        <v>16</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>[13.6786, 13.6856, 13.6745, 13.6929, 13.654]</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>[1.90771, 1.8719, 1.95453, 1.97194, 1.94048]</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>13.67675</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.9347125</v>
+      </c>
+      <c r="I112" t="n">
+        <v>7.069138179445267</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>800</v>
+      </c>
+      <c r="B113" t="n">
+        <v>32</v>
+      </c>
+      <c r="C113" t="n">
+        <v>800</v>
+      </c>
+      <c r="D113" t="n">
+        <v>32</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>[63.7051, 60.3853, 60.418, 60.8573, 60.9362]</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>[2.23229, 2.11046, 2.11053, 2.12349, 2.14099]</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>60.64920000000001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2.1213675</v>
+      </c>
+      <c r="I113" t="n">
+        <v>28.58967152084682</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>800</v>
+      </c>
+      <c r="B114" t="n">
+        <v>64</v>
+      </c>
+      <c r="C114" t="n">
+        <v>800</v>
+      </c>
+      <c r="D114" t="n">
+        <v>64</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>[108.164, 108.008, 108.107, 107.98, 108.003]</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>[2.70627, 2.73926, 2.70438, 2.74637, 2.74842]</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>108.0245</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2.7346075</v>
+      </c>
+      <c r="I114" t="n">
+        <v>39.50274399525343</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>800</v>
+      </c>
+      <c r="B115" t="n">
+        <v>128</v>
+      </c>
+      <c r="C115" t="n">
+        <v>800</v>
+      </c>
+      <c r="D115" t="n">
+        <v>128</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>[240.898, 241.545, 240.974, 241.164, 241.71]</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>[4.14816, 4.32634, 4.17786, 4.18509, 4.17382]</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>241.34825</v>
+      </c>
+      <c r="H115" t="n">
+        <v>4.2157775</v>
+      </c>
+      <c r="I115" t="n">
+        <v>57.2488111623538</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>800</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>[2.59363, 2.58355, 2.56717, 2.7177, 2.71053]</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>[1.83434, 1.86918, 1.86266, 1.8432, 1.84934]</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>2.6447375</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.856095</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1.424893391771434</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>800</v>
+      </c>
+      <c r="B117" t="n">
+        <v>8</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D117" t="n">
+        <v>8</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>[7.94432, 7.9616, 7.96253, 7.94419, 7.9993]</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>[1.98237, 1.97427, 2.00227, 1.88723, 1.99373]</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>7.966905000000001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.964375</v>
+      </c>
+      <c r="I117" t="n">
+        <v>4.055694559338212</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>800</v>
+      </c>
+      <c r="B118" t="n">
+        <v>16</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D118" t="n">
+        <v>16</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>[28.7827, 28.7526, 29.0191, 28.8839, 28.8164]</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>[2.31731, 2.30189, 2.23574, 2.20048, 2.31027]</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>28.868</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2.262095</v>
+      </c>
+      <c r="I118" t="n">
+        <v>12.76162141731448</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>800</v>
+      </c>
+      <c r="B119" t="n">
+        <v>32</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D119" t="n">
+        <v>32</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>[128.124, 122.669, 122.429, 121.683, 122.61]</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>[2.77088, 2.62451, 2.70112, 2.58886, 2.71965]</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>122.34775</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2.658535</v>
+      </c>
+      <c r="I119" t="n">
+        <v>46.02074074631329</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>800</v>
+      </c>
+      <c r="B120" t="n">
+        <v>64</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D120" t="n">
+        <v>64</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>[222.154, 222.709, 222.7, 221.648, 222.461]</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>[3.80723, 3.6864, 3.67821, 3.69264, 3.67616]</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>222.3795</v>
+      </c>
+      <c r="H120" t="n">
+        <v>3.6833525</v>
+      </c>
+      <c r="I120" t="n">
+        <v>60.3742107224329</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>800</v>
+      </c>
+      <c r="B121" t="n">
+        <v>128</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D121" t="n">
+        <v>128</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>[505.388, 508.832, 501.464, 509.471, 499.817]</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>[6.10816, 6.12339, 6.15856, 6.33549, 6.16243]</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>504.896</v>
+      </c>
+      <c r="H121" t="n">
+        <v>6.1949675</v>
+      </c>
+      <c r="I121" t="n">
+        <v>81.50099253950889</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4</v>
+      </c>
+      <c r="C122" t="n">
+        <v>100</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>[1.58925, 1.58618, 1.59846, 1.68851, 1.65581]</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>[1.7961, 1.82467, 1.81146, 1.90554, 1.88109]</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1.63224</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1.85569</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.8795865688773448</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B123" t="n">
+        <v>8</v>
+      </c>
+      <c r="C123" t="n">
+        <v>100</v>
+      </c>
+      <c r="D123" t="n">
+        <v>8</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>[2.41869, 2.49754, 2.4535, 2.56512, 2.41152]</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>[1.90333, 2.07872, 1.95043, 2.10944, 1.93331]</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>2.48192</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2.017975</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.229906217866921</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B124" t="n">
+        <v>16</v>
+      </c>
+      <c r="C124" t="n">
+        <v>100</v>
+      </c>
+      <c r="D124" t="n">
+        <v>16</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>[4.65488, 4.6961, 4.68374, 4.75216, 4.80666]</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>[2.07565, 2.09715, 2.10102, 2.24122, 2.18214]</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>4.734665000000001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2.1553825</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2.196670428566624</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B125" t="n">
+        <v>32</v>
+      </c>
+      <c r="C125" t="n">
+        <v>100</v>
+      </c>
+      <c r="D125" t="n">
+        <v>32</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>[13.8885, 13.866, 13.2903, 13.7411, 13.5587]</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>[2.33574, 2.33574, 2.30707, 2.36954, 2.3511]</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>13.614025</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2.3408625</v>
+      </c>
+      <c r="I125" t="n">
+        <v>5.815815751672728</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B126" t="n">
+        <v>64</v>
+      </c>
+      <c r="C126" t="n">
+        <v>100</v>
+      </c>
+      <c r="D126" t="n">
+        <v>64</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>[29.737, 29.5516, 29.8884, 30.1353, 29.5741]</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>[3.06176, 3.03174, 3.05254, 3.05331, 3.05942]</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>29.78735</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3.0492525</v>
+      </c>
+      <c r="I126" t="n">
+        <v>9.768738403920306</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B127" t="n">
+        <v>128</v>
+      </c>
+      <c r="C127" t="n">
+        <v>100</v>
+      </c>
+      <c r="D127" t="n">
+        <v>128</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>[68.8128, 62.2939, 61.6856, 61.8117, 62.0472]</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>[4.25648, 4.08781, 4.17382, 4.26077, 4.21478]</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>61.9596</v>
+      </c>
+      <c r="H127" t="n">
+        <v>4.184295000000001</v>
+      </c>
+      <c r="I127" t="n">
+        <v>14.80765576996842</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4</v>
+      </c>
+      <c r="C128" t="n">
+        <v>200</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>[1.65578, 1.68346, 1.70291, 1.66605, 1.75302]</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>[1.81216, 1.83603, 1.83389, 1.79814, 1.80838]</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1.70136</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1.81911</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.9352705443870902</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B129" t="n">
+        <v>8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>200</v>
+      </c>
+      <c r="D129" t="n">
+        <v>8</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>[2.6665, 2.65718, 2.65933, 2.64806, 2.62451]</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>[1.90768, 1.9321, 1.92035, 1.77632, 1.83808]</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>2.64727</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1.8667125</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1.418145536605128</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B130" t="n">
+        <v>16</v>
+      </c>
+      <c r="C130" t="n">
+        <v>200</v>
+      </c>
+      <c r="D130" t="n">
+        <v>16</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>[6.40922, 6.39488, 6.68877, 6.48285, 6.40819]</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>[1.96301, 3.50208, 1.89133, 2.05709, 1.89645]</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>6.4936725</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2.3367375</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2.778948213053456</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B131" t="n">
+        <v>32</v>
+      </c>
+      <c r="C131" t="n">
+        <v>200</v>
+      </c>
+      <c r="D131" t="n">
+        <v>32</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>[30.5725, 30.6002, 30.7251, 30.597, 30.9093]</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>[2.24051, 2.2743, 3.22269, 2.26746, 2.33165]</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>30.7079</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2.524025</v>
+      </c>
+      <c r="I131" t="n">
+        <v>12.16624241043571</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B132" t="n">
+        <v>64</v>
+      </c>
+      <c r="C132" t="n">
+        <v>200</v>
+      </c>
+      <c r="D132" t="n">
+        <v>64</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>[55.3011, 51.5656, 51.4478, 55.0963, 51.6987]</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>[2.95424, 2.78528, 2.81152, 2.94598, 2.85696]</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>52.4521</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2.849935</v>
+      </c>
+      <c r="I132" t="n">
+        <v>18.40466536956106</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B133" t="n">
+        <v>128</v>
+      </c>
+      <c r="C133" t="n">
+        <v>200</v>
+      </c>
+      <c r="D133" t="n">
+        <v>128</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>[113.384, 113.199, 113.705, 113.546, 113.287]</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>[4.11546, 4.12861, 4.1001, 4.13286, 4.11827]</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>113.43425</v>
+      </c>
+      <c r="H133" t="n">
+        <v>4.11996</v>
+      </c>
+      <c r="I133" t="n">
+        <v>27.53285226070156</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>400</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>[1.83315, 1.792, 1.7848, 1.78074, 1.86573]</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>[1.64352, 1.67219, 1.67802, 1.68883, 1.6896]</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1.8058175</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1.68216</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.073511140438484</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B135" t="n">
+        <v>8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>400</v>
+      </c>
+      <c r="D135" t="n">
+        <v>8</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>[3.72317, 3.72531, 3.74467, 3.73142, 3.71098]</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>[1.76112, 1.75014, 1.74285, 1.75514, 1.73645]</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>3.728095</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.746145</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2.135043195152751</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B136" t="n">
+        <v>16</v>
+      </c>
+      <c r="C136" t="n">
+        <v>400</v>
+      </c>
+      <c r="D136" t="n">
+        <v>16</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>[13.7144, 13.6694, 13.6652, 14.8469, 13.7073]</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>[1.94147, 1.96506, 1.91773, 1.92397, 1.97805]</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>13.9722</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1.9462025</v>
+      </c>
+      <c r="I136" t="n">
+        <v>7.179211824052225</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B137" t="n">
+        <v>32</v>
+      </c>
+      <c r="C137" t="n">
+        <v>400</v>
+      </c>
+      <c r="D137" t="n">
+        <v>32</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>[63.529, 63.8114, 60.841, 61.0171, 60.8053]</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>[2.24563, 2.35008, 2.16819, 2.18522, 2.26611]</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>61.6187</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2.2424</v>
+      </c>
+      <c r="I137" t="n">
+        <v>27.47890652871923</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B138" t="n">
+        <v>64</v>
+      </c>
+      <c r="C138" t="n">
+        <v>400</v>
+      </c>
+      <c r="D138" t="n">
+        <v>64</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>[108.343, 108.466, 108.157, 108.062, 108.052]</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>[2.86822, 2.8121, 2.93171, 2.7945, 2.82605]</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>108.18425</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2.84109</v>
+      </c>
+      <c r="I138" t="n">
+        <v>38.07843116550338</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B139" t="n">
+        <v>128</v>
+      </c>
+      <c r="C139" t="n">
+        <v>400</v>
+      </c>
+      <c r="D139" t="n">
+        <v>128</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>[240.912, 241.338, 241.019, 240.944, 241.163]</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>[4.83123, 4.28749, 4.29158, 4.2209, 4.26086]</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>241.116</v>
+      </c>
+      <c r="H139" t="n">
+        <v>4.2652075</v>
+      </c>
+      <c r="I139" t="n">
+        <v>56.53089562465601</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4</v>
+      </c>
+      <c r="C140" t="n">
+        <v>800</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>[2.49549, 2.49549, 2.4832, 2.62032, 2.63066]</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>[1.69984, 1.70662, 1.6896, 1.69062, 1.71827]</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>2.5574175</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1.7012775</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1.503233599456879</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B141" t="n">
+        <v>8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>800</v>
+      </c>
+      <c r="D141" t="n">
+        <v>8</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>[7.87149, 7.85101, 7.84483, 7.87763, 7.82445]</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>[1.87475, 1.85651, 1.86541, 1.86467, 1.83808]</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>7.84948</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1.8561675</v>
+      </c>
+      <c r="I141" t="n">
+        <v>4.228864043789152</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B142" t="n">
+        <v>16</v>
+      </c>
+      <c r="C142" t="n">
+        <v>800</v>
+      </c>
+      <c r="D142" t="n">
+        <v>16</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>[28.7826, 28.6954, 28.8195, 28.714, 28.7181]</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>[2.20243, 2.1719, 2.1983, 2.20774, 2.1553]</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>28.73675</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2.18331</v>
+      </c>
+      <c r="I142" t="n">
+        <v>13.16201089171945</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B143" t="n">
+        <v>32</v>
+      </c>
+      <c r="C143" t="n">
+        <v>800</v>
+      </c>
+      <c r="D143" t="n">
+        <v>32</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>[127.699, 123.442, 122.837, 122.648, 123.236]</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>[2.56893, 2.62758, 2.55718, 2.68595, 2.60198]</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>123.04075</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2.6181725</v>
+      </c>
+      <c r="I143" t="n">
+        <v>46.99489815892574</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B144" t="n">
+        <v>64</v>
+      </c>
+      <c r="C144" t="n">
+        <v>800</v>
+      </c>
+      <c r="D144" t="n">
+        <v>64</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>[222.586, 222.554, 222.077, 222.898, 223.015]</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>[3.62304, 3.71709, 3.66896, 3.7191, 3.96083]</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>222.636</v>
+      </c>
+      <c r="H144" t="n">
+        <v>3.766495</v>
+      </c>
+      <c r="I144" t="n">
+        <v>59.10959658780909</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B145" t="n">
+        <v>128</v>
+      </c>
+      <c r="C145" t="n">
+        <v>800</v>
+      </c>
+      <c r="D145" t="n">
+        <v>128</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>[500.143, 502.789, 500.143, 507.745, 502.94]</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>[6.11635, 6.34061, 6.17984, 6.09894, 6.12966]</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>503.40425</v>
+      </c>
+      <c r="H145" t="n">
+        <v>6.1872625</v>
+      </c>
+      <c r="I145" t="n">
+        <v>81.36138558853774</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>[4.83402, 4.81459, 4.81587, 4.992, 5.00112]</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>[1.76262, 1.75104, 1.73677, 1.77971, 1.76435]</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>4.905895</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1.7579675</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2.790663081086539</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B147" t="n">
+        <v>8</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D147" t="n">
+        <v>8</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>[15.9305, 15.9293, 15.915, 15.8945, 15.9212]</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>[1.88618, 1.8729, 1.91078, 1.91795, 2.0489]</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>15.915</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1.9376325</v>
+      </c>
+      <c r="I147" t="n">
+        <v>8.213631841951454</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B148" t="n">
+        <v>16</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D148" t="n">
+        <v>16</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>[58.6291, 57.602, 57.5427, 58.2799, 57.5283]</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>[2.24246, 2.09718, 2.12275, 2.4127, 2.1033]</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>57.738225</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2.1839825</v>
+      </c>
+      <c r="I148" t="n">
+        <v>26.43712804475311</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B149" t="n">
+        <v>32</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D149" t="n">
+        <v>32</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>[248.753, 250.413, 250.715, 251.304, 249.705]</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>[2.63866, 2.62838, 2.66035, 2.63475, 2.66957]</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>250.53425</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2.6482625</v>
+      </c>
+      <c r="I149" t="n">
+        <v>94.60325402032466</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B150" t="n">
+        <v>64</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D150" t="n">
+        <v>64</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>[454.823, 452.871, 463.779, 458.684, 455.751]</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>[4.11546, 3.7848, 3.83181, 3.80826, 4.1041]</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>457.77125</v>
+      </c>
+      <c r="H150" t="n">
+        <v>3.8822425</v>
+      </c>
+      <c r="I150" t="n">
+        <v>117.9141308148576</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B151" t="n">
+        <v>128</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D151" t="n">
+        <v>128</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>[1022.63, 1018.28, 1018.64, 1018.13, 1018.91]</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>[6.43891, 6.4215, 6.41414, 6.41536, 6.4]</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>1018.49</v>
+      </c>
+      <c r="H151" t="n">
+        <v>6.412749999999999</v>
+      </c>
+      <c r="I151" t="n">
+        <v>158.8226579860435</v>
       </c>
     </row>
   </sheetData>
